--- a/ocr-using-llm-quotation/BE/EXAMPLE/form.xlsx
+++ b/ocr-using-llm-quotation/BE/EXAMPLE/form.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\thai-quotation-ocr-llm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\llm-application\ocr-using-llm-quotation\BE\EXAMPLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1FD8E35-21BF-4DF1-990F-3DA8606AF970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60EA117-6980-4552-A56F-85F551EF282F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6D97DF20-D6BC-4692-869C-2A8668D93900}"/>
   </bookViews>
@@ -47,15 +47,6 @@
     <t>Unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Customer Name: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telephone Number: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email: </t>
-  </si>
-  <si>
     <t>Quotation Form</t>
   </si>
   <si>
@@ -69,13 +60,22 @@
   </si>
   <si>
     <t>Address:</t>
+  </si>
+  <si>
+    <t>Customer Name:</t>
+  </si>
+  <si>
+    <t>Telephone Number:</t>
+  </si>
+  <si>
+    <t>Email:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +110,13 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -161,16 +168,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -179,6 +182,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18CD5907-653F-402E-AB0C-113754D8B664}">
   <dimension ref="A1:F1048573"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -528,231 +537,189 @@
     <col min="5" max="5" width="17.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+    <row r="4" spans="1:6" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="30" spans="1:5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="47" spans="1:5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="1048573" spans="1:4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1048573" s="1"/>
